--- a/covid19/data_covid19_msis_by_time_location_2020-04-29.xlsx
+++ b/covid19/data_covid19_msis_by_time_location_2020-04-29.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,7 +1858,7 @@
         <v>43907</v>
       </c>
       <c r="M27">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28">
@@ -3893,7 +3893,7 @@
         <v>43944</v>
       </c>
       <c r="M64">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -4003,7 +4003,7 @@
         <v>43946</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -4058,7 +4058,7 @@
         <v>43947</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -4113,7 +4113,62 @@
         <v>43948</v>
       </c>
       <c r="M68">
-        <v>13</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>2020</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G69">
+        <v>2020</v>
+      </c>
+      <c r="H69">
+        <v>18</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2020-18</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K69">
+        <v>41</v>
+      </c>
+      <c r="L69" s="2">
+        <v>43949</v>
+      </c>
+      <c r="M69">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
